--- a/เช็คชื่อ/[2021-07-08] เอกสารเช็คชื่อ.xlsx
+++ b/เช็คชื่อ/[2021-07-08] เอกสารเช็คชื่อ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\เช็คชื่อ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD27AD81-56BB-45C8-97F7-A8B340EF089B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A711717D-298E-45E3-BA3A-14923BBEEFAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="28">
   <si>
     <t>ทีม 4</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>ตรวจความคืบหน้า</t>
+  </si>
+  <si>
+    <t>เป้าหมายทีม</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K122" sqref="K122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2228,6 +2231,141 @@
         <v>1</v>
       </c>
     </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>44386</v>
+      </c>
+      <c r="B127" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>6</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>8</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>9</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>10</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="10">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>11</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/เช็คชื่อ/[2021-07-08] เอกสารเช็คชื่อ.xlsx
+++ b/เช็คชื่อ/[2021-07-08] เอกสารเช็คชื่อ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\เช็คชื่อ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A711717D-298E-45E3-BA3A-14923BBEEFAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F975A811-A56B-4ADA-AC57-1D4E99BB4B3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K122" sqref="K122"/>
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2265,7 +2265,12 @@
       <c r="B129" t="s">
         <v>7</v>
       </c>
-      <c r="C129" s="2"/>
+      <c r="C129" s="2">
+        <v>0.7895833333333333</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
@@ -2274,7 +2279,12 @@
       <c r="B130" t="s">
         <v>15</v>
       </c>
-      <c r="C130" s="2"/>
+      <c r="C130" s="2">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
@@ -2283,7 +2293,12 @@
       <c r="B131" t="s">
         <v>8</v>
       </c>
-      <c r="C131" s="2"/>
+      <c r="C131" s="2">
+        <v>0.79027777777777775</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
@@ -2292,7 +2307,12 @@
       <c r="B132" t="s">
         <v>16</v>
       </c>
-      <c r="C132" s="2"/>
+      <c r="C132" s="2">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
@@ -2301,9 +2321,13 @@
       <c r="B133" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C133" s="10"/>
+      <c r="C133" s="10">
+        <v>0.78472222222222221</v>
+      </c>
       <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
+      <c r="E133" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
@@ -2312,7 +2336,12 @@
       <c r="B134" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="2"/>
+      <c r="C134" s="2">
+        <v>0.7895833333333333</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
@@ -2321,9 +2350,13 @@
       <c r="B135" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C135" s="10"/>
+      <c r="C135" s="10">
+        <v>0.78472222222222221</v>
+      </c>
       <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
+      <c r="E135" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
@@ -2332,9 +2365,13 @@
       <c r="B136" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C136" s="2"/>
+      <c r="C136" s="2">
+        <v>0.7895833333333333</v>
+      </c>
       <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
+      <c r="E136" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
